--- a/output/question_1/question_1_results.xlsx
+++ b/output/question_1/question_1_results.xlsx
@@ -489,19 +489,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1476.488277</v>
+        <v>1499.950211491302</v>
       </c>
       <c r="D2" t="n">
-        <v>5.369999999999891</v>
+        <v>5.884884066540508</v>
       </c>
       <c r="E2" t="n">
-        <v>33.32999999999993</v>
+        <v>33.79451286097446</v>
       </c>
       <c r="F2" t="n">
-        <v>11.19042452830188</v>
+        <v>11.39536036263987</v>
       </c>
       <c r="G2" t="n">
-        <v>49.84055555555552</v>
+        <v>51.32748288668247</v>
       </c>
     </row>
     <row r="3">
@@ -514,19 +514,19 @@
         <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>1476.470085</v>
+        <v>1499.931535491155</v>
       </c>
       <c r="D3" t="n">
-        <v>6.434999999999945</v>
+        <v>6.762132565301499</v>
       </c>
       <c r="E3" t="n">
-        <v>29.84182500000018</v>
+        <v>31.61495276676324</v>
       </c>
       <c r="F3" t="n">
-        <v>13.01448140900196</v>
+        <v>13.2439642329487</v>
       </c>
       <c r="G3" t="n">
-        <v>62.01119999999996</v>
+        <v>63.62023280019869</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +539,19 @@
         <v>0.66</v>
       </c>
       <c r="C4" t="n">
-        <v>1476.480657</v>
+        <v>1499.938773703761</v>
       </c>
       <c r="D4" t="n">
-        <v>6.434999999999945</v>
+        <v>6.762132565301499</v>
       </c>
       <c r="E4" t="n">
-        <v>34.24500000000012</v>
+        <v>36.09448946128441</v>
       </c>
       <c r="F4" t="n">
-        <v>13.63719230769232</v>
+        <v>13.91990021322014</v>
       </c>
       <c r="G4" t="n">
-        <v>58.4477777777778</v>
+        <v>60.45793797843513</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1476.547524</v>
+        <v>1500.00546689509</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.410000000000082</v>
+        <v>-1.421937789262756</v>
       </c>
       <c r="E5" t="n">
-        <v>48.93000000000006</v>
+        <v>49.9745741533975</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3734447220486506</v>
+        <v>0.3994445208379594</v>
       </c>
       <c r="G5" t="n">
-        <v>63.2920588235295</v>
+        <v>65.21622662403919</v>
       </c>
     </row>
     <row r="6">
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1322.790327</v>
+        <v>1499.177474997477</v>
       </c>
       <c r="D6" t="n">
-        <v>41.90999999999963</v>
+        <v>48.46841356229606</v>
       </c>
       <c r="E6" t="n">
-        <v>261.7874999999997</v>
+        <v>290.0297068161406</v>
       </c>
       <c r="F6" t="n">
-        <v>97.41142561983435</v>
+        <v>111.2150486732195</v>
       </c>
       <c r="G6" t="n">
-        <v>271.4082446808509</v>
+        <v>301.397890946702</v>
       </c>
     </row>
     <row r="7">
@@ -614,19 +614,19 @@
         <v>0.33</v>
       </c>
       <c r="C7" t="n">
-        <v>1322.4320685</v>
+        <v>1498.793202155781</v>
       </c>
       <c r="D7" t="n">
-        <v>41.90999999999963</v>
+        <v>48.46841356229606</v>
       </c>
       <c r="E7" t="n">
-        <v>275.1974999999998</v>
+        <v>307.4091780447563</v>
       </c>
       <c r="F7" t="n">
-        <v>104.8940322580642</v>
+        <v>119.8219656682603</v>
       </c>
       <c r="G7" t="n">
-        <v>337.0934090909089</v>
+        <v>378.0787942118872</v>
       </c>
     </row>
     <row r="8">
@@ -639,19 +639,19 @@
         <v>0.66</v>
       </c>
       <c r="C8" t="n">
-        <v>1322.5485525</v>
+        <v>1498.91216200326</v>
       </c>
       <c r="D8" t="n">
-        <v>41.90999999999963</v>
+        <v>48.46841356229606</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1670500000013</v>
+        <v>461.3781515163965</v>
       </c>
       <c r="F8" t="n">
-        <v>114.2131906779658</v>
+        <v>130.93732526439</v>
       </c>
       <c r="G8" t="n">
-        <v>423.5099999999998</v>
+        <v>478.6707253888674</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1323.217833</v>
+        <v>1499.668324924288</v>
       </c>
       <c r="D9" t="n">
-        <v>41.90999999999963</v>
+        <v>48.46841356229606</v>
       </c>
       <c r="E9" t="n">
-        <v>423.5099999999998</v>
+        <v>478.6707253888674</v>
       </c>
       <c r="F9" t="n">
-        <v>128.2371274685815</v>
+        <v>147.5657629568092</v>
       </c>
       <c r="G9" t="n">
-        <v>423.5099999999995</v>
+        <v>478.6707253888673</v>
       </c>
     </row>
   </sheetData>
